--- a/docs/resource/ApartmentLocation2018-07-02.xlsx
+++ b/docs/resource/ApartmentLocation2018-07-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PythonProjects\McMasterGradStuManual\docs\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B06757-3D68-42C1-917E-49E35E169531}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E82FB5-8150-472A-85D1-9D6AAD83C4D4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17385" xr2:uid="{5DEBA4B1-7EA9-4F54-9729-F2E2627657AD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="240">
   <si>
     <t>100 Main St E</t>
   </si>
@@ -1161,8 +1161,8 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1921,8 +1921,8 @@
       <c r="B53" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>235</v>
+      <c r="C53" s="4">
+        <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>239</v>
